--- a/LCM.Website/Content/TemplateFile/PK_Report_Template_v2.0.xlsx
+++ b/LCM.Website/Content/TemplateFile/PK_Report_Template_v2.0.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homer\Project\LCM\LCM.Website\Content\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5388556-4CB8-428A-A399-094945191088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E56D7-60EA-4F87-A598-E5248242D95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="1080" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Closed" sheetId="12" r:id="rId1"/>
     <sheet name="NoneClose" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Closed!$A$3:$AB$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NoneClose!$A$3:$AB$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Closed!$A$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">NoneClose!$A$3:$AH$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -217,6 +217,26 @@
   <si>
     <t>人工結案備註</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiddenS18SoNo</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiddenS18SoLineNo</t>
+  </si>
+  <si>
+    <t>HiddenTransactionId</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>廠商備註</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HiddenS18StatusId</t>
   </si>
 </sst>
 </file>
@@ -443,7 +463,7 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +517,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,13 +885,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -895,14 +921,20 @@
     <col min="25" max="25" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="39" width="8.75" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="20.125" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="43" width="8.75" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.75" style="1"/>
+    <col min="28" max="28" width="17.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.375" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="33.875" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="34.75" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="31.875" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="40" width="8.75" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="20.125" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="44" width="8.75" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="26.55" hidden="1" customHeight="1">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="26.55" hidden="1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -981,10 +1013,9 @@
       <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
@@ -995,44 +1026,51 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
       <c r="AM1" s="6"/>
-      <c r="AO1" s="6"/>
+      <c r="AN1" s="6"/>
       <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
     </row>
-    <row r="2" spans="1:42" s="3" customFormat="1" ht="26.55" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:43" s="3" customFormat="1" ht="26.55" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
     </row>
-    <row r="3" spans="1:42" s="4" customFormat="1" ht="26.55" customHeight="1">
+    <row r="3" spans="1:43" s="4" customFormat="1" ht="26.55" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1112,27 +1150,45 @@
         <v>28</v>
       </c>
       <c r="AA3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="AD3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
-      <c r="AN6" s="14" t="s">
+    <row r="6" spans="1:43">
+      <c r="AO6" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
-      <c r="AN8" s="15" t="s">
+    <row r="8" spans="1:43">
+      <c r="AO8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AB3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AH3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:AB2"/>
+    <mergeCell ref="N2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1142,13 +1198,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU18" sqref="AU18"/>
+      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8"/>
@@ -1176,16 +1232,20 @@
     <col min="23" max="23" width="16.25" style="1" customWidth="1"/>
     <col min="24" max="26" width="12" style="1" customWidth="1"/>
     <col min="27" max="27" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="16.75" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="39" width="8.75" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="19.75" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="43" width="8.75" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.75" style="1"/>
+    <col min="28" max="28" width="17.75" style="1" customWidth="1"/>
+    <col min="29" max="29" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.25" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="26.75" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="27.625" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="24.75" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="40" width="8.75" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.75" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="44" width="8.75" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="26.55" hidden="1" customHeight="1">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="26.55" hidden="1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,10 +1324,9 @@
       <c r="Z1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="6"/>
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
@@ -1278,49 +1337,51 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
       <c r="AM1" s="6"/>
-      <c r="AO1" s="6"/>
+      <c r="AN1" s="6"/>
       <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
     </row>
-    <row r="2" spans="1:42" s="3" customFormat="1" ht="26.55" customHeight="1">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:43" s="3" customFormat="1" ht="26.55" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="18"/>
       <c r="AE2" s="19"/>
       <c r="AF2" s="19"/>
       <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
     </row>
-    <row r="3" spans="1:42" s="4" customFormat="1" ht="26.55" customHeight="1">
+    <row r="3" spans="1:43" s="4" customFormat="1" ht="26.55" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1400,34 +1461,45 @@
         <v>28</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
+      <c r="AE3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
-      <c r="AN6" s="17" t="s">
+    <row r="6" spans="1:43">
+      <c r="AO6" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
-      <c r="AN8" s="16" t="s">
+    <row r="8" spans="1:43">
+      <c r="AO8" s="16" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AB3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A3:AH3" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:AB2"/>
+    <mergeCell ref="N2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,6 +1508,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x0101006110D2F5B2E5214A9B9E7F50C40DB167" ma:contentTypeVersion="8" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="474719eee9893287e2877a9b716ecc3e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7630c48-9f04-4150-8691-5031263a0d91" xmlns:ns3="c985b55e-824b-4be8-ac02-9996eda26dda" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e13d5881ee997608815266cc1894a0f1" ns2:_="" ns3:_="">
     <xsd:import namespace="e7630c48-9f04-4150-8691-5031263a0d91"/>
@@ -1612,16 +1693,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D98A680-45FE-465C-A37B-8BECD2DAEEFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05D0366D-696E-441C-B5BA-2F3A6D127446}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1638,12 +1718,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D98A680-45FE-465C-A37B-8BECD2DAEEFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>